--- a/biology/Botanique/Tillandsia_humilis/Tillandsia_humilis.xlsx
+++ b/biology/Botanique/Tillandsia_humilis/Tillandsia_humilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia humilis est une espèce de plantes de la famille des Bromeliaceae, endémique du Pérou.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia aureobrunnea Mez : dont l'épithète aureobrunnea, « brun doré », se rapporte au coloris floral.
 Tillandsia dombeyi Baker
@@ -545,10 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-L'espèce est endémique du Pérou et se rencontre dans les régions de Cajamarca[2],[3], Huánuco[3] et Lima[3].
-Habitat
-L'espèce croit dans les arbres et les falaises[3] entre 2 000 et 2 500 mètres d'altitude[3].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique du Pérou et se rencontre dans les régions de Cajamarca Huánuco et Lima.
 </t>
         </is>
       </c>
@@ -574,12 +591,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce croit dans les arbres et les falaises entre 2 000 et 2 500 mètres d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tillandsia_humilis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_humilis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia humilis est une plante herbacée en rosette acaule ou sur tige courte, monocarpique, vivace par ses rejets latéraux, épiphyte[3] et rupicole[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia humilis est une plante herbacée en rosette acaule ou sur tige courte, monocarpique, vivace par ses rejets latéraux, épiphyte et rupicole.
 </t>
         </is>
       </c>
